--- a/data/trans_orig/IP11A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D16AB4-59DE-4B93-8E65-4F90EC35936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{196EB50E-03E7-4F8B-93B3-8F8CE13C3C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B70F530B-41A5-474C-913D-25C60031CDFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{032704C0-3EB4-4405-91D5-2333736C65C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="774">
   <si>
     <t>Menores según el lugar donde se produjo el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>En otro lugar</t>
@@ -101,31 +101,34 @@
     <t>27,81%</t>
   </si>
   <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>En un lugar de recreo o deporte</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>En un lugar de recreo o deporte</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>76,39%</t>
+    <t>74,74%</t>
   </si>
   <si>
     <t>29,96%</t>
@@ -134,19 +137,19 @@
     <t>8,07%</t>
   </si>
   <si>
-    <t>64,78%</t>
+    <t>65,34%</t>
   </si>
   <si>
     <t>En la escuela, colegio, guardería</t>
   </si>
   <si>
-    <t>75,03%</t>
+    <t>83,18%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>47,06%</t>
+    <t>47,72%</t>
   </si>
   <si>
     <t>En su casa</t>
@@ -155,28 +158,25 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>82,29%</t>
-  </si>
-  <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>83,26%</t>
+    <t>82,47%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -191,103 +191,103 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>37,28%</t>
+    <t>30,93%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>27,86%</t>
+    <t>30,44%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>46,62%</t>
+    <t>43,75%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>46,59%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -302,2062 +302,2065 @@
     <t>35,16%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>49,27%</t>
+    <t>43,34%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>48,28%</t>
+    <t>47,48%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>44,78%</t>
+    <t>42,89%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>28,49%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
 </sst>
 </file>
@@ -2769,7 +2772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAFC7A-3231-4895-A131-E44BED3F74A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A886E-3E6F-451E-AACC-6D90ADEE2A56}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3103,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3112,13 +3115,13 @@
         <v>596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3127,19 +3130,19 @@
         <v>1936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3169,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3178,19 +3181,19 @@
         <v>737</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -3199,13 +3202,13 @@
         <v>819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3549,7 +3552,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -3600,7 +3603,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7">
         <v>7</v>
@@ -3959,7 +3962,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -4010,7 +4013,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -4333,7 +4336,7 @@
         <v>130</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4342,13 +4345,13 @@
         <v>1220</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4357,19 +4360,19 @@
         <v>3867</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>5</v>
@@ -4378,13 +4381,13 @@
         <v>3141</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4393,13 +4396,13 @@
         <v>2475</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -4408,19 +4411,19 @@
         <v>5616</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
@@ -4429,13 +4432,13 @@
         <v>2619</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4444,13 +4447,13 @@
         <v>1339</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -4459,13 +4462,13 @@
         <v>3959</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4524,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -4539,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4569,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4620,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4638,13 @@
         <v>1339</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4665,13 +4668,13 @@
         <v>1339</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4689,13 @@
         <v>2040</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -4701,13 +4704,13 @@
         <v>1555</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -4716,13 +4719,13 @@
         <v>3594</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4740,13 @@
         <v>2567</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -4752,13 +4755,13 @@
         <v>1462</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>6</v>
@@ -4767,19 +4770,19 @@
         <v>4028</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7">
         <v>4</v>
@@ -4788,13 +4791,13 @@
         <v>2791</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4803,13 +4806,13 @@
         <v>5166</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -4818,19 +4821,19 @@
         <v>7957</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -4839,13 +4842,13 @@
         <v>1949</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4854,13 +4857,13 @@
         <v>857</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -4869,13 +4872,13 @@
         <v>2806</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4964,7 +4967,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -5000,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5015,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -5066,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -5132,7 +5135,7 @@
         <v>207</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5150,13 @@
         <v>12244</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -5162,13 +5165,13 @@
         <v>5059</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M48" s="7">
         <v>27</v>
@@ -5177,19 +5180,19 @@
         <v>17304</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="7">
         <v>15</v>
@@ -5240,7 +5243,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="7">
         <v>21</v>
@@ -5362,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88FFFFD-3774-4035-8716-2C5392B7F6FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAA1AA-A1F2-49DA-867B-A220078358CB}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5688,7 +5691,7 @@
         <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5716,13 +5719,13 @@
         <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5771,7 +5774,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -6039,7 +6042,7 @@
         <v>249</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -6048,13 +6051,13 @@
         <v>1347</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -6063,13 +6066,13 @@
         <v>3480</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6087,13 @@
         <v>6942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6099,13 +6102,13 @@
         <v>3594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -6114,19 +6117,19 @@
         <v>10535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -6135,13 +6138,13 @@
         <v>2064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6150,13 +6153,13 @@
         <v>2135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6165,19 +6168,19 @@
         <v>4199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -6186,13 +6189,13 @@
         <v>668</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -6201,13 +6204,13 @@
         <v>1997</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -6216,13 +6219,13 @@
         <v>2665</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +6267,7 @@
         <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>21574</v>
+        <v>21575</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>44</v>
@@ -6296,7 +6299,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6305,13 +6308,13 @@
         <v>656</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6320,13 +6323,13 @@
         <v>656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -6356,13 +6359,13 @@
         <v>710</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6371,13 +6374,13 @@
         <v>710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6413,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6428,7 +6431,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6446,13 @@
         <v>2608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6458,13 +6461,13 @@
         <v>609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6473,13 +6476,13 @@
         <v>3217</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6539,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>5</v>
@@ -6563,10 +6566,10 @@
         <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -6575,19 +6578,19 @@
         <v>6080</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -6596,13 +6599,13 @@
         <v>3997</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6611,13 +6614,13 @@
         <v>6337</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -6626,13 +6629,13 @@
         <v>10334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,7 +6739,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6805,13 @@
         <v>628</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6832,13 +6835,13 @@
         <v>628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6856,13 @@
         <v>1821</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6868,13 +6871,13 @@
         <v>1207</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -6883,13 +6886,13 @@
         <v>3029</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6907,13 @@
         <v>5828</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6919,13 +6922,13 @@
         <v>1354</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -6934,19 +6937,19 @@
         <v>7181</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>6</v>
@@ -6955,13 +6958,13 @@
         <v>3715</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -6970,13 +6973,13 @@
         <v>1628</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6985,19 +6988,19 @@
         <v>5344</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>9</v>
@@ -7006,13 +7009,13 @@
         <v>6148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -7021,13 +7024,13 @@
         <v>4309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -7036,13 +7039,13 @@
         <v>10457</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,7 +7101,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -7116,7 +7119,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7131,7 +7134,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7146,7 +7149,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,28 +7164,28 @@
         <v>1893</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7191,13 +7194,13 @@
         <v>1893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7233,7 +7236,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7248,7 +7251,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7272,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -7278,13 +7281,13 @@
         <v>2245</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>196</v>
+        <v>369</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -7293,13 +7296,13 @@
         <v>2245</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7317,13 @@
         <v>6082</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7329,13 +7332,13 @@
         <v>4554</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -7344,19 +7347,19 @@
         <v>10636</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7">
         <v>8</v>
@@ -7365,13 +7368,13 @@
         <v>5943</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -7380,13 +7383,13 @@
         <v>5179</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -7395,19 +7398,19 @@
         <v>11122</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
         <v>7</v>
@@ -7416,13 +7419,13 @@
         <v>5454</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -7431,13 +7434,13 @@
         <v>731</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -7446,13 +7449,13 @@
         <v>6184</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7523,13 @@
         <v>1696</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -7535,13 +7538,13 @@
         <v>656</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -7550,13 +7553,13 @@
         <v>2352</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7574,13 @@
         <v>1893</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -7586,13 +7589,13 @@
         <v>710</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -7601,13 +7604,13 @@
         <v>2602</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7625,13 @@
         <v>628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7643,7 +7646,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -7652,13 +7655,13 @@
         <v>628</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7676,13 @@
         <v>6563</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H47" s="7">
         <v>8</v>
@@ -7688,13 +7691,13 @@
         <v>5409</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
@@ -7703,13 +7706,13 @@
         <v>11972</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7727,13 @@
         <v>31246</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H48" s="7">
         <v>28</v>
@@ -7739,13 +7742,13 @@
         <v>19903</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M48" s="7">
         <v>74</v>
@@ -7754,19 +7757,19 @@
         <v>51149</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="7">
         <v>22</v>
@@ -7775,13 +7778,13 @@
         <v>15085</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H49" s="7">
         <v>16</v>
@@ -7790,13 +7793,13 @@
         <v>11661</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="M49" s="7">
         <v>38</v>
@@ -7805,19 +7808,19 @@
         <v>26746</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>109</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="7">
         <v>22</v>
@@ -7826,13 +7829,13 @@
         <v>16267</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H50" s="7">
         <v>21</v>
@@ -7844,10 +7847,10 @@
         <v>236</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M50" s="7">
         <v>43</v>
@@ -7856,13 +7859,13 @@
         <v>29640</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>445</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D627F953-41BD-4527-AC6E-1C581476164D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD5FF1A-D18F-48AF-A7F9-18958B4865D2}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7956,7 +7959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8069,7 +8072,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8084,7 +8087,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8120,7 +8123,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8135,7 +8138,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8171,7 +8174,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8186,7 +8189,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8216,10 +8219,10 @@
         <v>2587</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>44</v>
@@ -8237,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -8246,13 +8249,13 @@
         <v>2587</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,7 +8276,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8288,7 +8291,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8309,7 +8312,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -8324,7 +8327,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -8333,10 +8336,10 @@
         <v>1099</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>44</v>
@@ -8348,19 +8351,19 @@
         <v>1099</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>454</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -8375,7 +8378,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8390,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8629,10 +8632,10 @@
         <v>463</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>203</v>
+        <v>464</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8641,13 +8644,13 @@
         <v>644</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -8656,13 +8659,13 @@
         <v>5105</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,13 +8695,13 @@
         <v>1390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -8707,19 +8710,19 @@
         <v>1390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -8728,13 +8731,13 @@
         <v>1526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -8743,13 +8746,13 @@
         <v>722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -8758,19 +8761,19 @@
         <v>2247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -8779,13 +8782,13 @@
         <v>1408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -8794,13 +8797,13 @@
         <v>1241</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -8809,13 +8812,13 @@
         <v>2649</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8883,13 +8886,13 @@
         <v>662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8913,13 +8916,13 @@
         <v>662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8940,7 +8943,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8991,7 +8994,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9000,13 +9003,13 @@
         <v>640</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -9021,7 +9024,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +9039,13 @@
         <v>1836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -9051,13 +9054,13 @@
         <v>2344</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -9066,13 +9069,13 @@
         <v>4180</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9090,13 @@
         <v>3842</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>253</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>503</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -9102,13 +9105,13 @@
         <v>1260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -9117,19 +9120,19 @@
         <v>5102</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -9138,13 +9141,13 @@
         <v>2078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -9153,13 +9156,13 @@
         <v>3334</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>511</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -9168,19 +9171,19 @@
         <v>5413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -9189,13 +9192,13 @@
         <v>2663</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -9204,13 +9207,13 @@
         <v>1377</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -9219,13 +9222,13 @@
         <v>4040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,13 +9296,13 @@
         <v>549</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>524</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9308,13 +9311,13 @@
         <v>455</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -9323,13 +9326,13 @@
         <v>1003</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9365,7 +9368,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>528</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9380,7 +9383,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>529</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,7 +9419,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>528</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -9539,7 +9542,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>2</v>
@@ -9590,7 +9593,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -9602,10 +9605,10 @@
         <v>554</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9614,13 +9617,13 @@
         <v>1136</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -9629,13 +9632,13 @@
         <v>2952</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9694,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -9709,7 +9712,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9739,7 +9742,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>529</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,7 +9763,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9790,7 +9793,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>529</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9805,13 +9808,13 @@
         <v>713</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>562</v>
+        <v>63</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -9820,13 +9823,13 @@
         <v>772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -9835,13 +9838,13 @@
         <v>1485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9856,13 +9859,13 @@
         <v>3154</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9886,13 +9889,13 @@
         <v>3154</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,13 +9910,13 @@
         <v>3604</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -9922,13 +9925,13 @@
         <v>1444</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M40" s="7">
         <v>7</v>
@@ -9937,19 +9940,19 @@
         <v>5048</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7">
         <v>4</v>
@@ -9958,13 +9961,13 @@
         <v>2907</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -9973,13 +9976,13 @@
         <v>738</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9988,19 +9991,19 @@
         <v>3645</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>348</v>
+        <v>552</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -10009,13 +10012,13 @@
         <v>1391</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -10039,13 +10042,13 @@
         <v>1391</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10113,13 +10116,13 @@
         <v>1211</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -10128,13 +10131,13 @@
         <v>1014</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -10143,13 +10146,13 @@
         <v>2225</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10170,37 +10173,37 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10215,13 +10218,13 @@
         <v>1301</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -10230,13 +10233,13 @@
         <v>2751</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -10245,13 +10248,13 @@
         <v>4052</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10266,13 +10269,13 @@
         <v>12037</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -10281,13 +10284,13 @@
         <v>3513</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>610</v>
+        <v>479</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -10296,13 +10299,13 @@
         <v>15550</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10317,13 +10320,13 @@
         <v>11100</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>318</v>
+        <v>612</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H48" s="7">
         <v>7</v>
@@ -10332,13 +10335,13 @@
         <v>4573</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M48" s="7">
         <v>23</v>
@@ -10347,19 +10350,19 @@
         <v>15673</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="7">
         <v>11</v>
@@ -10368,13 +10371,13 @@
         <v>7797</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>492</v>
+        <v>620</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H49" s="7">
         <v>11</v>
@@ -10383,13 +10386,13 @@
         <v>7765</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>626</v>
+        <v>539</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M49" s="7">
         <v>22</v>
@@ -10401,16 +10404,16 @@
         <v>23</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="7">
         <v>11</v>
@@ -10419,13 +10422,13 @@
         <v>7277</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>632</v>
+        <v>146</v>
       </c>
       <c r="H50" s="7">
         <v>6</v>
@@ -10434,13 +10437,13 @@
         <v>3754</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>634</v>
+        <v>401</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M50" s="7">
         <v>17</v>
@@ -10449,13 +10452,13 @@
         <v>11031</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>527</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10532,7 +10535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082D213-8ADA-4B3B-934B-22BE83A8A0A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D94934C-8091-49D0-BFD0-DA877AE77102}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10549,7 +10552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10675,7 +10678,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10690,7 +10693,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10724,7 +10727,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -10739,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10773,7 +10776,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10788,7 +10791,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10822,7 +10825,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -10837,7 +10840,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10865,10 +10868,10 @@
         <v>406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>44</v>
@@ -10880,10 +10883,10 @@
         <v>406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>44</v>
@@ -10892,7 +10895,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -10920,7 +10923,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -10935,13 +10938,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -10969,7 +10972,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -10984,7 +10987,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11218,13 +11221,13 @@
         <v>1645</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -11233,13 +11236,13 @@
         <v>1645</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>641</v>
+        <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11254,13 +11257,13 @@
         <v>1732</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -11269,13 +11272,13 @@
         <v>467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -11284,19 +11287,19 @@
         <v>2199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -11305,13 +11308,13 @@
         <v>512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -11320,13 +11323,13 @@
         <v>700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -11335,19 +11338,19 @@
         <v>1212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -11371,13 +11374,13 @@
         <v>347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -11386,13 +11389,13 @@
         <v>347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11466,7 +11469,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -11481,7 +11484,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -11517,7 +11520,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -11532,7 +11535,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -11562,13 +11565,13 @@
         <v>658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>654</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -11577,13 +11580,13 @@
         <v>1268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -11592,13 +11595,13 @@
         <v>1926</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11613,13 +11616,13 @@
         <v>1403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -11628,13 +11631,13 @@
         <v>894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -11643,13 +11646,13 @@
         <v>2297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11664,13 +11667,13 @@
         <v>3475</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -11679,13 +11682,13 @@
         <v>1537</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -11694,19 +11697,19 @@
         <v>5012</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -11721,7 +11724,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -11730,13 +11733,13 @@
         <v>975</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -11745,19 +11748,19 @@
         <v>975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>677</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -11772,7 +11775,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11787,7 +11790,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11885,13 +11888,13 @@
         <v>424</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -11900,13 +11903,13 @@
         <v>424</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>318</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11972,13 +11975,13 @@
         <v>975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>679</v>
+        <v>515</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>269</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -12002,13 +12005,13 @@
         <v>975</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>681</v>
+        <v>567</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12023,13 +12026,13 @@
         <v>2036</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -12038,13 +12041,13 @@
         <v>642</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -12053,13 +12056,13 @@
         <v>2678</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12074,13 +12077,13 @@
         <v>858</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -12089,13 +12092,13 @@
         <v>1613</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -12104,19 +12107,19 @@
         <v>2470</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -12125,13 +12128,13 @@
         <v>906</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -12140,13 +12143,13 @@
         <v>2090</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>697</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -12155,19 +12158,19 @@
         <v>2996</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -12176,13 +12179,13 @@
         <v>2681</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -12191,13 +12194,13 @@
         <v>1643</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -12206,13 +12209,13 @@
         <v>4324</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12268,7 +12271,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -12448,13 +12451,13 @@
         <v>522</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -12463,13 +12466,13 @@
         <v>522</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12484,13 +12487,13 @@
         <v>3936</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -12514,19 +12517,19 @@
         <v>3936</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -12535,13 +12538,13 @@
         <v>2559</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>723</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -12550,13 +12553,13 @@
         <v>2028</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -12565,19 +12568,19 @@
         <v>4586</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -12586,13 +12589,13 @@
         <v>678</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -12616,13 +12619,13 @@
         <v>678</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12705,13 +12708,13 @@
         <v>424</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -12720,13 +12723,13 @@
         <v>424</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>736</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12762,7 +12765,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -12777,7 +12780,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12792,13 +12795,13 @@
         <v>1633</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>620</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -12807,13 +12810,13 @@
         <v>1268</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>557</v>
+        <v>737</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -12822,13 +12825,13 @@
         <v>2901</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12843,13 +12846,13 @@
         <v>3439</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>743</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>744</v>
+        <v>352</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -12858,13 +12861,13 @@
         <v>3704</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
@@ -12873,13 +12876,13 @@
         <v>7143</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12894,7 +12897,7 @@
         <v>10001</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>466</v>
+        <v>749</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>750</v>
@@ -12936,7 +12939,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="7">
         <v>5</v>
@@ -12948,10 +12951,10 @@
         <v>758</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H49" s="7">
         <v>8</v>
@@ -12960,13 +12963,13 @@
         <v>5793</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>429</v>
+        <v>760</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
@@ -12975,19 +12978,19 @@
         <v>9770</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="7">
         <v>4</v>
@@ -12996,7 +12999,7 @@
         <v>3360</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>765</v>
+        <v>214</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>766</v>
@@ -13029,10 +13032,10 @@
         <v>771</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>508</v>
+        <v>772</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
